--- a/src/test/resources/VtigerCRMTestCases.xlsx
+++ b/src/test/resources/VtigerCRMTestCases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium auto\Selenium_vtiger\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium auto\vtiger-CRM-Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1098AE-F04C-4D7D-8917-2CEB20B4FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF31D9-279A-4C77-9114-38B0FC5864A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" activeTab="2" xr2:uid="{2519D8E2-75C3-400D-813F-E41D80CB418B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>Test Case_ID</t>
   </si>
@@ -154,15 +154,13 @@
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>Delete Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -707,11 +705,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="32.26953125" customWidth="1"/>
-    <col min="4" max="4" width="33.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.1796875"/>
+    <col min="2" max="2" customWidth="true" width="40.26953125"/>
+    <col min="3" max="3" customWidth="true" width="32.26953125"/>
+    <col min="4" max="4" customWidth="true" width="33.7265625"/>
+    <col min="5" max="5" customWidth="true" width="23.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -827,11 +825,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.81640625"/>
+    <col min="2" max="2" customWidth="true" width="40.453125"/>
+    <col min="3" max="3" customWidth="true" width="34.26953125"/>
+    <col min="4" max="4" customWidth="true" width="31.0"/>
+    <col min="5" max="5" customWidth="true" width="17.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -931,19 +929,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5041845-80DE-49DC-B602-80F54DC601F4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0"/>
+    <col min="2" max="2" customWidth="true" width="37.7265625"/>
+    <col min="3" max="3" customWidth="true" width="30.453125"/>
+    <col min="4" max="4" customWidth="true" width="29.453125"/>
+    <col min="5" max="5" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1059,11 +1057,6 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1085,11 +1078,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.26953125"/>
+    <col min="2" max="2" customWidth="true" width="38.1796875"/>
+    <col min="3" max="3" customWidth="true" width="28.54296875"/>
+    <col min="4" max="4" customWidth="true" width="30.81640625"/>
+    <col min="5" max="5" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
